--- a/Documentation/Planification_V1.xlsx
+++ b/Documentation/Planification_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/371c2caacf93074d/Documents/HEIG/TB Driver Brushless/TB-Driver-Brushless/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB7147DC-5DFD-4F3C-85F9-1BD4040EC95A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{CB7147DC-5DFD-4F3C-85F9-1BD4040EC95A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F103D6D7-A7BD-4156-83DC-A0C8225237DE}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="672" windowWidth="17280" windowHeight="8976" xr2:uid="{E4DCEC7E-A84B-4A69-AC68-472FA9C158BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E4DCEC7E-A84B-4A69-AC68-472FA9C158BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>N°</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Programmation</t>
   </si>
   <si>
-    <t>Tests</t>
-  </si>
-  <si>
     <t>Écriture du rapport</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Rédaction de documents livrables</t>
   </si>
   <si>
-    <t>Gestion du projet (~10%)</t>
-  </si>
-  <si>
     <t>T90</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>Mesures des performances</t>
   </si>
   <si>
-    <t>T100</t>
-  </si>
-  <si>
     <t>Dessin du schéma électrique</t>
   </si>
   <si>
@@ -153,9 +144,6 @@
     <t>Gestion d'un codeur absolu analogique</t>
   </si>
   <si>
-    <t>Communication I2C</t>
-  </si>
-  <si>
     <t>Communication CAN</t>
   </si>
   <si>
@@ -183,9 +171,6 @@
     <t>T80.20</t>
   </si>
   <si>
-    <t>T90.10</t>
-  </si>
-  <si>
     <t>T50.10</t>
   </si>
   <si>
@@ -211,14 +196,58 @@
   </si>
   <si>
     <t>Imprévus (~10% = 42H)</t>
+  </si>
+  <si>
+    <t>Communication I2C / SPI</t>
+  </si>
+  <si>
+    <t>T50.90</t>
+  </si>
+  <si>
+    <t>Communication UART</t>
+  </si>
+  <si>
+    <t>T50.100</t>
+  </si>
+  <si>
+    <t>Gestion du pont triphasé</t>
+  </si>
+  <si>
+    <t>T70.10</t>
+  </si>
+  <si>
+    <t>T70.20</t>
+  </si>
+  <si>
+    <t>Séances ébdomadaires avec prof. Répondant (préparation)</t>
+  </si>
+  <si>
+    <t>Gestion du projet</t>
+  </si>
+  <si>
+    <t>Schéma de puissance</t>
+  </si>
+  <si>
+    <t>Schéma de commande</t>
+  </si>
+  <si>
+    <t>Schéma d'alimentations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -246,12 +275,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -568,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FBCC03-12B2-4877-A171-7A10D6B76BA3}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,22 +618,22 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2"/>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -637,261 +670,338 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7">
-        <v>40</v>
-      </c>
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8">
+      <c r="C11" s="4"/>
+      <c r="D11">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13">
-        <v>120</v>
-      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
       <c r="D22">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
       <c r="D23">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
       <c r="D24">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>54</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27">
+      <c r="D34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D31">
-        <f>SUM(D2:D29)</f>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <f>SUM(D2:D36)</f>
         <v>420</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:C29"/>
+  <mergeCells count="10">
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/Planification_V1.xlsx
+++ b/Documentation/Planification_V1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/371c2caacf93074d/Documents/HEIG/TB Driver Brushless/TB-Driver-Brushless/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{CB7147DC-5DFD-4F3C-85F9-1BD4040EC95A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F103D6D7-A7BD-4156-83DC-A0C8225237DE}"/>
+  <xr:revisionPtr revIDLastSave="287" documentId="8_{CB7147DC-5DFD-4F3C-85F9-1BD4040EC95A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{019B7484-930A-4ED2-BEB8-7F6D8E1B9E93}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E4DCEC7E-A84B-4A69-AC68-472FA9C158BB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E4DCEC7E-A84B-4A69-AC68-472FA9C158BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>N°</t>
   </si>
@@ -232,13 +232,103 @@
   </si>
   <si>
     <t>Schéma d'alimentations</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>s8</t>
+  </si>
+  <si>
+    <t>s9</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>s12</t>
+  </si>
+  <si>
+    <t>s13</t>
+  </si>
+  <si>
+    <t>s14</t>
+  </si>
+  <si>
+    <t>s15</t>
+  </si>
+  <si>
+    <t>s16</t>
+  </si>
+  <si>
+    <t>s17</t>
+  </si>
+  <si>
+    <t>s18</t>
+  </si>
+  <si>
+    <t>s19</t>
+  </si>
+  <si>
+    <t>s20</t>
+  </si>
+  <si>
+    <t>s21</t>
+  </si>
+  <si>
+    <t>s22</t>
+  </si>
+  <si>
+    <t>T80.40</t>
+  </si>
+  <si>
+    <t>T80.30</t>
+  </si>
+  <si>
+    <t>Rédaction du cahier des charges</t>
+  </si>
+  <si>
+    <t>Mise en place de la plannification</t>
+  </si>
+  <si>
+    <t>Consommé</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>S0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +337,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -263,7 +373,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -271,27 +381,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -601,409 +1000,1834 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FBCC03-12B2-4877-A171-7A10D6B76BA3}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE33" sqref="AE33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4.21875" customWidth="1"/>
-    <col min="3" max="3" width="51" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" style="34" customWidth="1"/>
+    <col min="6" max="27" width="5.77734375" customWidth="1"/>
+    <col min="28" max="28" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC1" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="23"/>
+    </row>
+    <row r="3" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="24">
+        <f>SUM(E3:AA3)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="26">
+        <f>D3-AB3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="24">
+        <f>SUM(E4:AA4)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="26">
+        <f>D4-AB4</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="24">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="24">
+        <f t="shared" ref="AB4:AB38" si="0">SUM(F5:AA5)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="26">
+        <f>D5-AB5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="27">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="24">
+        <f>SUM(E6:AA6)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="26">
+        <f>D6-AB6</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+    </row>
+    <row r="8" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="24">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="24">
+        <f>SUM(E8:AA8)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="24">
+        <f>D8-AB8</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="24">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="24">
+        <f>D9-AB9</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="27">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="24">
+        <f>SUM(E10:AA10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="27">
+        <f>D10-AB10</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11">
+      <c r="C11" s="8"/>
+      <c r="D11" s="21">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="21">
+        <f>SUM(E11:AA11)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="26">
+        <f>D11-AB11</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="24">
+        <f>SUM(E12:AA12)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="26">
+        <f>D12-AB12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+    </row>
+    <row r="14" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="24">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="24">
+        <f>SUM(E14:AA14)</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="24">
+        <f>D14-AB14</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="24">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="24">
+        <f>SUM(E15:AA15)</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="24">
+        <f>D15-AB15</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="27">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="24">
+        <f>SUM(E16:AA16)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="27">
+        <f>D16-AB16</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="26"/>
+    </row>
+    <row r="18" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="24">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="24">
+        <f>SUM(E18:AA18)</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="26">
+        <f>D18-AB18</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="24">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="24">
+        <f>SUM(E19:AA19)</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="26">
+        <f>D19-AB19</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="24">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="24">
+        <f>SUM(E20:AA20)</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="26">
+        <f>D20-AB20</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="24">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="24">
+        <f>SUM(E21:AA21)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="26">
+        <f>D21-AB21</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="24">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="24">
+        <f>SUM(E22:AA22)</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="26">
+        <f>D22-AB22</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="24">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="24">
+        <f>SUM(E23:AA23)</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="26">
+        <f>D23-AB23</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="24">
+        <f>SUM(E24:AA24)</f>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="26">
+        <f>D24-AB24</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="24">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="24">
+        <f>SUM(E25:AA25)</f>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="26">
+        <f>D25-AB25</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="24">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="24">
+        <f>SUM(E26:AA26)</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="26">
+        <f>D26-AB26</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="24">
+        <f>SUM(E27:AA27)</f>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="26">
+        <f>D27-AB27</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28">
+      <c r="C28" s="8"/>
+      <c r="D28" s="21">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="21">
+        <f>SUM(E28:AA28)</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="21">
+        <f>D28-AB28</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="24">
+        <f>SUM(E29:AA29)</f>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="27">
+        <f>D29-AB29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="26"/>
+    </row>
+    <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="24">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="24">
+        <f>SUM(E31:AA31)</f>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="26">
+        <f>D31-AB31</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="27">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="24">
+        <f>SUM(E32:AA32)</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="26">
+        <f>D32-AB32</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+    </row>
+    <row r="34" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="24">
+        <v>3</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="24">
+        <f>SUM(E34:AA34)</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="24">
+        <f>D34-AB34</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="24">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="E35" s="25">
+        <v>5</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="24">
+        <f>SUM(E35:AA35)</f>
+        <v>5</v>
+      </c>
+      <c r="AC35" s="24">
+        <f>D35-AB35</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="24">
+        <v>2</v>
+      </c>
+      <c r="E36" s="25">
+        <v>1</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="24">
+        <f>SUM(E36:AA36)</f>
+        <v>1</v>
+      </c>
+      <c r="AC36" s="24">
+        <f>D36-AB36</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="D37" s="27">
+        <v>5</v>
+      </c>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="27">
+        <f>SUM(E37:AA37)</f>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="27">
+        <f>D37-AB37</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B38" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36">
+      <c r="C38" s="8"/>
+      <c r="D38" s="21">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D38">
-        <f>SUM(D2:D36)</f>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="30">
+        <f>SUM(E38:AA38)</f>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="31">
+        <f>D38-AB38</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="18"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+    </row>
+    <row r="40" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="30">
+        <f>SUM(D2:D38)</f>
         <v>420</v>
       </c>
+      <c r="E40" s="29">
+        <f t="shared" ref="E40:AA40" si="1">SUM(E2:E38)</f>
+        <v>6</v>
+      </c>
+      <c r="F40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="31">
+        <f>SUM(E40:AA40)</f>
+        <v>6</v>
+      </c>
+      <c r="AC40" s="27">
+        <f>D40-AB40</f>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A40:C40"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="AC2:AC40">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="AB5" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Documentation/Planification_V1.xlsx
+++ b/Documentation/Planification_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/371c2caacf93074d/Documents/HEIG/TB Driver Brushless/TB-Driver-Brushless/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="8_{CB7147DC-5DFD-4F3C-85F9-1BD4040EC95A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{97B3C9A0-A01D-4B68-97AE-C16A67A7BF50}"/>
+  <xr:revisionPtr revIDLastSave="423" documentId="8_{CB7147DC-5DFD-4F3C-85F9-1BD4040EC95A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{10952F76-12C9-44E1-B698-CB9419CD2D4B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E4DCEC7E-A84B-4A69-AC68-472FA9C158BB}"/>
   </bookViews>
@@ -379,7 +379,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -545,11 +545,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,56 +702,86 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -972,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FBCC03-12B2-4877-A171-7A10D6B76BA3}">
-  <dimension ref="A1:AC42"/>
+  <dimension ref="A1:AC43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C38" sqref="B31:C38"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,14 +1126,14 @@
     <col min="30" max="16384" width="11.5546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:29" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="15" t="s">
         <v>37</v>
       </c>
@@ -1010,7 +1146,7 @@
       <c r="G1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="36" t="s">
         <v>68</v>
       </c>
       <c r="I1" s="12" t="s">
@@ -1022,7 +1158,7 @@
       <c r="K1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="42" t="s">
         <v>72</v>
       </c>
       <c r="M1" s="12" t="s">
@@ -1049,7 +1185,7 @@
       <c r="T1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="36" t="s">
         <v>81</v>
       </c>
       <c r="V1" s="12" t="s">
@@ -1067,33 +1203,33 @@
       <c r="Z1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AB1" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AC1" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1102,22 +1238,22 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="U2" s="33"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="1"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="4">
@@ -1126,7 +1262,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1139,14 +1275,14 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
+      <c r="U3" s="33"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="4">
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="6">
         <f>SUM(E3:AA3)</f>
         <v>0</v>
       </c>
@@ -1156,11 +1292,11 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="4">
@@ -1169,7 +1305,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1182,14 +1318,14 @@
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
+      <c r="U4" s="33"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="4">
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="6">
         <f>SUM(E4:AA4)</f>
         <v>0</v>
       </c>
@@ -1199,11 +1335,11 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4">
@@ -1212,7 +1348,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -1225,14 +1361,14 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
+      <c r="U5" s="33"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="4">
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="6">
         <f t="shared" ref="AB5:AB9" si="0">SUM(F5:AA5)</f>
         <v>0</v>
       </c>
@@ -1242,11 +1378,11 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="7">
@@ -1255,7 +1391,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -1268,14 +1404,14 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
+      <c r="U6" s="35"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="4">
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="6">
         <f>SUM(E6:AA6)</f>
         <v>0</v>
       </c>
@@ -1285,23 +1421,23 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -1309,20 +1445,20 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="U7" s="33"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="1"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="3"/>
       <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D8" s="4">
@@ -1331,7 +1467,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1344,14 +1480,14 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
+      <c r="U8" s="33"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="4">
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="6">
         <f>SUM(E8:AA8)</f>
         <v>0</v>
       </c>
@@ -1361,9 +1497,9 @@
       </c>
     </row>
     <row r="9" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="4">
@@ -1372,7 +1508,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1385,14 +1521,14 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
+      <c r="U9" s="33"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="4">
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1402,9 +1538,9 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22" t="s">
         <v>65</v>
       </c>
       <c r="D10" s="7">
@@ -1413,7 +1549,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1426,14 +1562,14 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
+      <c r="U10" s="35"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="4">
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="6">
         <f>SUM(E10:AA10)</f>
         <v>0</v>
       </c>
@@ -1443,25 +1579,25 @@
       </c>
     </row>
     <row r="11" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="1">
         <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -1469,14 +1605,14 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="U11" s="33"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="1">
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="3">
         <f>SUM(E11:AA11)</f>
         <v>0</v>
       </c>
@@ -1486,14 +1622,14 @@
       </c>
     </row>
     <row r="12" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1506,14 +1642,14 @@
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
+      <c r="U12" s="35"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="4">
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="6">
         <f>SUM(E12:AA12)</f>
         <v>0</v>
       </c>
@@ -1523,22 +1659,22 @@
       </c>
     </row>
     <row r="13" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="38"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1547,22 +1683,22 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="U13" s="33"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="1"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="3"/>
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="4">
@@ -1571,7 +1707,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1584,14 +1720,14 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="U14" s="33"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="4">
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="6">
         <f>SUM(E14:AA14)</f>
         <v>0</v>
       </c>
@@ -1601,11 +1737,11 @@
       </c>
     </row>
     <row r="15" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="4">
@@ -1616,7 +1752,7 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1629,14 +1765,14 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="U15" s="33"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="4">
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="6">
         <f>SUM(E15:AA15)</f>
         <v>1.5</v>
       </c>
@@ -1646,11 +1782,11 @@
       </c>
     </row>
     <row r="16" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="7">
@@ -1659,7 +1795,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -1672,14 +1808,14 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
+      <c r="U16" s="35"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="4">
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="6">
         <f>SUM(E16:AA16)</f>
         <v>0</v>
       </c>
@@ -1689,22 +1825,22 @@
       </c>
     </row>
     <row r="17" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1713,22 +1849,22 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
+      <c r="U17" s="33"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="1"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="3"/>
       <c r="AC17" s="6"/>
     </row>
     <row r="18" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="4">
@@ -1737,7 +1873,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1750,14 +1886,14 @@
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="U18" s="33"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="4">
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="6">
         <f t="shared" ref="AB18:AB30" si="1">SUM(E18:AA18)</f>
         <v>0</v>
       </c>
@@ -1767,11 +1903,11 @@
       </c>
     </row>
     <row r="19" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="4">
@@ -1780,7 +1916,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1793,14 +1929,14 @@
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
+      <c r="U19" s="33"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="4">
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1810,11 +1946,11 @@
       </c>
     </row>
     <row r="20" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="4">
@@ -1823,7 +1959,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1836,14 +1972,14 @@
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
+      <c r="U20" s="33"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="4">
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1853,11 +1989,11 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="4">
@@ -1866,7 +2002,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1879,14 +2015,14 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
+      <c r="U21" s="33"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="4">
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1896,11 +2032,11 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="4">
@@ -1909,7 +2045,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1922,14 +2058,14 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
+      <c r="U22" s="33"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="4">
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1939,11 +2075,11 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="4">
@@ -1952,7 +2088,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -1965,14 +2101,14 @@
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
+      <c r="U23" s="33"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="4">
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1982,11 +2118,11 @@
       </c>
     </row>
     <row r="24" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="4">
@@ -1995,7 +2131,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -2008,14 +2144,14 @@
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
+      <c r="U24" s="33"/>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="4">
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2025,11 +2161,11 @@
       </c>
     </row>
     <row r="25" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="4">
@@ -2038,7 +2174,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -2051,14 +2187,14 @@
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
+      <c r="U25" s="33"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="4">
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2068,11 +2204,11 @@
       </c>
     </row>
     <row r="26" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="4">
@@ -2081,7 +2217,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -2094,14 +2230,14 @@
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
+      <c r="U26" s="33"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="4">
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="6">
         <f>SUM(E26:AA26)</f>
         <v>0</v>
       </c>
@@ -2111,11 +2247,11 @@
       </c>
     </row>
     <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="4">
@@ -2124,7 +2260,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="H27" s="33"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -2137,14 +2273,14 @@
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
+      <c r="U27" s="33"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="4">
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2154,11 +2290,11 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="26" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="23" t="s">
         <v>96</v>
       </c>
       <c r="D28" s="7">
@@ -2167,7 +2303,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="H28" s="35"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -2180,14 +2316,14 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
+      <c r="U28" s="35"/>
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="4">
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2197,24 +2333,24 @@
       </c>
     </row>
     <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="21"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="1">
         <v>10</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="38"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="L29" s="5"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2223,14 +2359,14 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
+      <c r="U29" s="33"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="1">
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2240,14 +2376,14 @@
       </c>
     </row>
     <row r="30" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="H30" s="35"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -2260,14 +2396,14 @@
       <c r="R30" s="8"/>
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
+      <c r="U30" s="35"/>
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="4">
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2277,22 +2413,22 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="38"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="L31" s="5"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -2301,22 +2437,22 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
+      <c r="U31" s="33"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="1"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="3"/>
       <c r="AC31" s="6"/>
     </row>
     <row r="32" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="4">
@@ -2325,7 +2461,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -2338,14 +2474,14 @@
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
+      <c r="U32" s="33"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="4">
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="6">
         <f>SUM(E32:AA32)</f>
         <v>0</v>
       </c>
@@ -2355,11 +2491,11 @@
       </c>
     </row>
     <row r="33" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="7">
@@ -2368,7 +2504,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="H33" s="35"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -2381,14 +2517,14 @@
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
+      <c r="U33" s="35"/>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="4">
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="6">
         <f>SUM(E33:AA33)</f>
         <v>0</v>
       </c>
@@ -2398,22 +2534,22 @@
       </c>
     </row>
     <row r="34" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="21"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="H34" s="38"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="L34" s="5"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -2422,22 +2558,22 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
+      <c r="U34" s="33"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="1"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="3"/>
       <c r="AC34" s="1"/>
     </row>
     <row r="35" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="4">
@@ -2446,7 +2582,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="H35" s="33"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -2459,14 +2595,14 @@
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
+      <c r="U35" s="33"/>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="4">
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="6">
         <f>SUM(E35:AA35)</f>
         <v>0</v>
       </c>
@@ -2476,11 +2612,11 @@
       </c>
     </row>
     <row r="36" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="23" t="s">
+      <c r="B36" s="25"/>
+      <c r="C36" s="20" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="4">
@@ -2493,7 +2629,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="H36" s="33"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -2506,14 +2642,14 @@
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
+      <c r="U36" s="33"/>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="4">
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="6">
         <f>SUM(E36:AA36)</f>
         <v>8</v>
       </c>
@@ -2523,11 +2659,11 @@
       </c>
     </row>
     <row r="37" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D37" s="4">
@@ -2540,7 +2676,7 @@
         <v>0.5</v>
       </c>
       <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="H37" s="33"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -2553,14 +2689,14 @@
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
+      <c r="U37" s="33"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="4">
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="6">
         <f>SUM(E37:AA37)</f>
         <v>1</v>
       </c>
@@ -2570,11 +2706,11 @@
       </c>
     </row>
     <row r="38" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D38" s="7">
@@ -2585,7 +2721,7 @@
         <v>0.25</v>
       </c>
       <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="H38" s="35"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -2598,14 +2734,14 @@
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
+      <c r="U38" s="35"/>
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="7">
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="41">
         <f>SUM(E38:AA38)</f>
         <v>0.25</v>
       </c>
@@ -2615,24 +2751,24 @@
       </c>
     </row>
     <row r="39" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="21"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="1">
         <v>42</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="H39" s="38"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="L39" s="9"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -2641,14 +2777,14 @@
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
+      <c r="U39" s="37"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="10">
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="11">
         <f>SUM(E39:AA39)</f>
         <v>0</v>
       </c>
@@ -2658,18 +2794,18 @@
       </c>
     </row>
     <row r="40" spans="1:29" ht="2.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="9"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="H40" s="38"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="L40" s="9"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -2678,22 +2814,22 @@
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
+      <c r="U40" s="37"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="5"/>
+      <c r="AA40" s="33"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
     </row>
     <row r="41" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="10">
         <f>SUM(D2:D39)</f>
         <v>420</v>
@@ -2710,7 +2846,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2762,7 +2898,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U41" s="9">
+      <c r="U41" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2786,7 +2922,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA41" s="11">
+      <c r="AA41" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2830,19 +2966,90 @@
       <c r="AB42" s="13"/>
       <c r="AC42" s="13"/>
     </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="E43" s="32">
+        <v>23.02</v>
+      </c>
+      <c r="F43" s="14">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G43" s="14">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="H43" s="14">
+        <v>16.03</v>
+      </c>
+      <c r="I43" s="14">
+        <v>23.03</v>
+      </c>
+      <c r="J43" s="14">
+        <v>30.03</v>
+      </c>
+      <c r="K43" s="14">
+        <v>6.04</v>
+      </c>
+      <c r="L43" s="14">
+        <v>13.04</v>
+      </c>
+      <c r="M43" s="14">
+        <v>20.04</v>
+      </c>
+      <c r="N43" s="14">
+        <v>27.04</v>
+      </c>
+      <c r="O43" s="14">
+        <v>4.05</v>
+      </c>
+      <c r="P43" s="14">
+        <v>11.05</v>
+      </c>
+      <c r="Q43" s="14">
+        <v>18.05</v>
+      </c>
+      <c r="R43" s="14">
+        <v>25.05</v>
+      </c>
+      <c r="S43" s="14">
+        <v>1.06</v>
+      </c>
+      <c r="T43" s="14">
+        <v>8.06</v>
+      </c>
+      <c r="U43" s="14">
+        <v>15.06</v>
+      </c>
+      <c r="V43" s="14">
+        <v>22.06</v>
+      </c>
+      <c r="W43" s="14">
+        <v>29.06</v>
+      </c>
+      <c r="X43" s="14">
+        <v>6.07</v>
+      </c>
+      <c r="Y43" s="14">
+        <v>13.07</v>
+      </c>
+      <c r="Z43" s="14">
+        <v>20.07</v>
+      </c>
+      <c r="AA43" s="14">
+        <v>27.07</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="AC2:AC41">

--- a/Documentation/Planification_V1.xlsx
+++ b/Documentation/Planification_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/371c2caacf93074d/Documents/HEIG/TB Driver Brushless/TB-Driver-Brushless/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="423" documentId="8_{CB7147DC-5DFD-4F3C-85F9-1BD4040EC95A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{10952F76-12C9-44E1-B698-CB9419CD2D4B}"/>
+  <xr:revisionPtr revIDLastSave="665" documentId="8_{CB7147DC-5DFD-4F3C-85F9-1BD4040EC95A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{72A4C906-8740-4162-B7D1-F498055E2350}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E4DCEC7E-A84B-4A69-AC68-472FA9C158BB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>N°</t>
   </si>
@@ -129,15 +129,9 @@
     <t>Gestion des capteurs à effet Hall digitaux</t>
   </si>
   <si>
-    <t>Gestion des capteurs à effet Hall analogiques</t>
-  </si>
-  <si>
     <t>Gestion d'un codeur incrémental digital</t>
   </si>
   <si>
-    <t>Gestion d'un capteur SIN/COS</t>
-  </si>
-  <si>
     <t>Gestion d'un codeur absolu digital</t>
   </si>
   <si>
@@ -177,15 +171,9 @@
     <t>T50.20</t>
   </si>
   <si>
-    <t>T50.30</t>
-  </si>
-  <si>
     <t>T50.40</t>
   </si>
   <si>
-    <t>T50.50</t>
-  </si>
-  <si>
     <t>T50.60</t>
   </si>
   <si>
@@ -297,9 +285,6 @@
     <t>s21</t>
   </si>
   <si>
-    <t>s22</t>
-  </si>
-  <si>
     <t>T80.40</t>
   </si>
   <si>
@@ -328,13 +313,46 @@
   </si>
   <si>
     <t xml:space="preserve">TOTAL   </t>
+  </si>
+  <si>
+    <t>Sélection des footprints</t>
+  </si>
+  <si>
+    <t>Préplacement</t>
+  </si>
+  <si>
+    <t>Routage</t>
+  </si>
+  <si>
+    <t>Génération des fichiers</t>
+  </si>
+  <si>
+    <t>Contrôles</t>
+  </si>
+  <si>
+    <t>Mesures thérmiques</t>
+  </si>
+  <si>
+    <t>Mesures CEM</t>
+  </si>
+  <si>
+    <t>Séances ébdomadaires avec prof. Répondant</t>
+  </si>
+  <si>
+    <t>T80.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estimation hebdomadaire   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">différence hebdomadaire   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,16 +388,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -641,13 +672,59 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -696,9 +773,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -726,9 +800,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -738,56 +809,172 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1108,124 +1295,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FBCC03-12B2-4877-A171-7A10D6B76BA3}">
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:AB48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="14"/>
-    <col min="2" max="2" width="4.21875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="27" width="5.77734375" style="14" customWidth="1"/>
-    <col min="28" max="28" width="11.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="11.5546875" style="14"/>
+    <col min="1" max="1" width="8.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.21875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="6.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" style="13" customWidth="1"/>
+    <col min="17" max="26" width="6.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="11.5546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:28" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="15" t="s">
-        <v>37</v>
+      <c r="C1" s="36"/>
+      <c r="D1" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="L1" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="P1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="U1" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="Y1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="Z1" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="W1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AA1" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="AB1" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="38"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1238,31 +1424,30 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="33"/>
+      <c r="U2" s="26"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="38"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="1"/>
       <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-    </row>
-    <row r="3" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="4">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="33"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1275,37 +1460,36 @@
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="33"/>
+      <c r="U3" s="26"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="33"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="4">
+        <f>SUM(E3:Z3)</f>
+        <v>0</v>
+      </c>
       <c r="AB3" s="6">
-        <f>SUM(E3:AA3)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="6">
-        <f>D3-AB3</f>
+        <f>D3-AA3</f>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="4">
         <v>5</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="33"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1318,28 +1502,27 @@
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="33"/>
+      <c r="U4" s="26"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="33"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="4">
+        <f>SUM(E4:Z4)</f>
+        <v>0</v>
+      </c>
       <c r="AB4" s="6">
-        <f>SUM(E4:AA4)</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="6">
-        <f>D4-AB4</f>
+        <f>D4-AA4</f>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="4">
@@ -1347,8 +1530,8 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="33"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -1361,42 +1544,41 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="33"/>
+      <c r="U5" s="26"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="33"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="4">
+        <f>SUM(F5:Z5)</f>
+        <v>0</v>
+      </c>
       <c r="AB5" s="6">
-        <f t="shared" ref="AB5:AB9" si="0">SUM(F5:AA5)</f>
-        <v>0</v>
-      </c>
-      <c r="AC5" s="6">
-        <f>D5-AB5</f>
+        <f>D5-AA5</f>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22" t="s">
-        <v>38</v>
+    <row r="6" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="D6" s="7">
         <v>15</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -1404,35 +1586,34 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
-      <c r="U6" s="35"/>
+      <c r="U6" s="28"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="35"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="4">
+        <f>SUM(E6:Z6)</f>
+        <v>0</v>
+      </c>
       <c r="AB6" s="6">
-        <f>SUM(E6:AA6)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="6">
-        <f>D6-AB6</f>
+        <f>D6-AA6</f>
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="38"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="5"/>
@@ -1445,21 +1626,20 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="33"/>
+      <c r="U7" s="26"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="1"/>
-    </row>
-    <row r="8" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20" t="s">
-        <v>63</v>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="D8" s="4">
         <v>15</v>
@@ -1467,40 +1647,38 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="33"/>
+      <c r="U8" s="26"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="6">
-        <f>SUM(E8:AA8)</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="4">
-        <f>D8-AB8</f>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="4">
+        <f>SUM(E8:Z8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>D8-AA8</f>
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20" t="s">
-        <v>64</v>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="D9" s="4">
         <v>15</v>
@@ -1508,12 +1686,11 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="44"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -1521,27 +1698,26 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="33"/>
+      <c r="U9" s="26"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="4">
-        <f>D9-AB9</f>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="4">
+        <f>SUM(F9:Z9)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <f>D9-AA9</f>
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22" t="s">
-        <v>65</v>
+    <row r="10" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="D10" s="7">
         <v>15</v>
@@ -1549,11 +1725,11 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="58"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -1562,37 +1738,34 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
-      <c r="U10" s="35"/>
+      <c r="U10" s="28"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="6">
-        <f>SUM(E10:AA10)</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="7">
-        <f>D10-AB10</f>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="4">
+        <f>SUM(E10:Z10)</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="7">
+        <f>D10-AA10</f>
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="1">
-        <v>80</v>
-      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="38"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="5"/>
@@ -1605,189 +1778,154 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="33"/>
+      <c r="U11" s="26"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="3">
-        <f>SUM(E11:AA11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="6">
-        <f>D11-AB11</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="6">
-        <f>SUM(E12:AA12)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="6">
-        <f>D12-AB12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="1">
+        <f>SUM(E11:Z11)</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="6">
+        <f>D11-AA11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="4">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="6"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="4">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="M13" s="45"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="6"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="4">
         <v>40</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="4">
-        <v>3</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="33"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="33"/>
+      <c r="U14" s="26"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="6">
-        <f>SUM(E14:AA14)</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="4">
-        <f>D14-AB14</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20" t="s">
-        <v>15</v>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="6"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="37" t="s">
+        <v>96</v>
       </c>
       <c r="D15" s="4">
-        <v>10</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1.5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="33"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="O15" s="45"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="33"/>
+      <c r="U15" s="26"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="6">
-        <f>SUM(E15:AA15)</f>
-        <v>1.5</v>
-      </c>
-      <c r="AC15" s="4">
-        <f>D15-AB15</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22" t="s">
-        <v>16</v>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="6"/>
+    </row>
+    <row r="16" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="37" t="s">
+        <v>97</v>
       </c>
       <c r="D16" s="7">
         <v>5</v>
@@ -1795,7 +1933,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="35"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -1803,40 +1941,37 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
+      <c r="P16" s="48"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
-      <c r="U16" s="35"/>
+      <c r="U16" s="28"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="35"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="4">
+        <f>SUM(E16:Z16)</f>
+        <v>0</v>
+      </c>
       <c r="AB16" s="6">
-        <f>SUM(E16:AA16)</f>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="7">
-        <f>D16-AB16</f>
+        <f>D16-AA16</f>
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="28"/>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="35"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="38"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1849,31 +1984,30 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="33"/>
+      <c r="U17" s="26"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="6"/>
-    </row>
-    <row r="18" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20" t="s">
-        <v>58</v>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="D18" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="33"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1882,41 +2016,42 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="Q18" s="45"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="33"/>
+      <c r="U18" s="26"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="6">
-        <f t="shared" ref="AB18:AB30" si="1">SUM(E18:AA18)</f>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="6">
-        <f t="shared" ref="AC18:AC30" si="2">D18-AB18</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20" t="s">
-        <v>30</v>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="4">
+        <f>SUM(E18:Z18)</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="4">
+        <f>D18-AA18</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="D19" s="4">
         <v>10</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5">
+        <v>1.5</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="33"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1925,506 +2060,492 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="Q19" s="45"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="33"/>
+      <c r="U19" s="26"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="4">
-        <v>10</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="4">
-        <v>10</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20" t="s">
-        <v>33</v>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="4">
+        <f>SUM(E19:Z19)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AB19" s="4">
+        <f>D19-AA19</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="7">
+        <v>5</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="4">
+        <f>SUM(E20:Z20)</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="7">
+        <f>D20-AA20</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="6"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="D22" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="33"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="33"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="26"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="33"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="4">
+        <f>SUM(E22:Z22)</f>
+        <v>0</v>
+      </c>
       <c r="AB22" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20" t="s">
-        <v>34</v>
+        <f>D22-AA22</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="D23" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="33"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="33"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="26"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="33"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="4">
+        <f>SUM(E23:Z23)</f>
+        <v>0</v>
+      </c>
       <c r="AB23" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20" t="s">
-        <v>35</v>
+        <f>D23-AA23</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="D24" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="33"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="33"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="47"/>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="33"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="4">
+        <f>SUM(E24:Z24)</f>
+        <v>0</v>
+      </c>
       <c r="AB24" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20" t="s">
-        <v>54</v>
+        <f>D24-AA24</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="D25" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="33"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="33"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="47"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="33"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="4">
+        <f>SUM(E25:Z25)</f>
+        <v>0</v>
+      </c>
       <c r="AB25" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20" t="s">
-        <v>36</v>
+        <f>D25-AA25</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="D26" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="33"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="5"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="45"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="33"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="4">
+        <f>SUM(E26:Z26)</f>
+        <v>0</v>
+      </c>
       <c r="AB26" s="6">
-        <f>SUM(E26:AA26)</f>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="6">
-        <f>D26-AB26</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20" t="s">
-        <v>56</v>
+        <f>D26-AA26</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="D27" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="33"/>
+      <c r="H27" s="26"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
       <c r="T27" s="5"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="5"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="45"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="33"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="4">
+        <f>SUM(E27:Z27)</f>
+        <v>0</v>
+      </c>
       <c r="AB27" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="6">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="7">
+        <f>D27-AA27</f>
         <v>20</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="35"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="4">
+        <v>30</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="4">
+        <f>SUM(E28:Z28)</f>
+        <v>0</v>
+      </c>
       <c r="AB28" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="6">
-        <f t="shared" si="2"/>
+        <f>D28-AA28</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="1">
-        <v>10</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="7"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="4">
+        <f>SUM(E29:Z29)</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="6">
+        <f>D29-AA29</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="7">
+        <v>50</v>
+      </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="35"/>
+      <c r="H30" s="28"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
       <c r="T30" s="8"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="35"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="4">
+        <f>SUM(E30:Z30)</f>
+        <v>0</v>
+      </c>
       <c r="AB30" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="28"/>
+        <f>D30-AA30</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="35"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="38"/>
+      <c r="H31" s="31"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -2437,31 +2558,34 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="33"/>
+      <c r="U31" s="26"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="6"/>
-    </row>
-    <row r="32" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20" t="s">
-        <v>18</v>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="1">
+        <f>SUM(E31:Z31)</f>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1">
+        <f>D31-AA31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="D32" s="4">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="33"/>
+      <c r="H32" s="26"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -2474,78 +2598,62 @@
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="33"/>
+      <c r="U32" s="26"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="6">
-        <f>SUM(E32:AA32)</f>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="6">
-        <f>D32-AB32</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="7">
-        <v>5</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+    </row>
+    <row r="33" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="34"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="4">
+        <v>15</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="6">
-        <f>SUM(E33:AA33)</f>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="6">
-        <f>D33-AB33</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="28"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="35"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="38"/>
+      <c r="H34" s="31"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -2558,31 +2666,30 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="33"/>
+      <c r="U34" s="26"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="38"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="1"/>
-    </row>
-    <row r="35" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20" t="s">
-        <v>27</v>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="6"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="D35" s="4">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="33"/>
+      <c r="H35" s="26"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -2593,474 +2700,756 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="33"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="47"/>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="33"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="4">
+        <f>SUM(E35:Z35)</f>
+        <v>0</v>
+      </c>
       <c r="AB35" s="6">
-        <f>SUM(E35:AA35)</f>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="4">
-        <f>D35-AB35</f>
+        <f>D35-AA35</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="7">
+        <v>10</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="55"/>
+      <c r="AA36" s="4">
+        <f>SUM(E36:Z36)</f>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="6">
+        <f>D36-AA36</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="47"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="4">
+        <f>SUM(E38:Z38)</f>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="4">
+        <f>D38-AA38</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="4">
         <v>10</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E39" s="45">
         <v>5</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F39" s="46">
         <v>3</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="6">
-        <f>SUM(E36:AA36)</f>
+      <c r="G39" s="45"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="4">
+        <f>SUM(E39:Z39)</f>
         <v>8</v>
       </c>
-      <c r="AC36" s="4">
-        <f>D36-AB36</f>
+      <c r="AB39" s="4">
+        <f>D39-AA39</f>
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="4">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="4">
         <v>2</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E40" s="45">
         <v>0.5</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F40" s="46">
+        <v>1</v>
+      </c>
+      <c r="G40" s="45"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="4">
+        <f>SUM(E40:Z40)</f>
+        <v>1.5</v>
+      </c>
+      <c r="AB40" s="4">
+        <f>D40-AA40</f>
         <v>0.5</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="6">
-        <f>SUM(E37:AA37)</f>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="4">
+        <v>22</v>
+      </c>
+      <c r="E41" s="45">
         <v>1</v>
       </c>
-      <c r="AC37" s="4">
-        <f>D37-AB37</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="7">
+      <c r="F41" s="46">
+        <v>2</v>
+      </c>
+      <c r="G41" s="45"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="45"/>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+    </row>
+    <row r="42" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="7">
         <v>5</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8">
+      <c r="E42" s="8"/>
+      <c r="F42" s="48">
         <v>0.25</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="41">
-        <f>SUM(E38:AA38)</f>
+      <c r="G42" s="48"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="49"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="48"/>
+      <c r="Z42" s="55"/>
+      <c r="AA42" s="7">
+        <f>SUM(E42:Z42)</f>
         <v>0.25</v>
       </c>
-      <c r="AC38" s="7">
-        <f>D38-AB38</f>
+      <c r="AB42" s="7">
+        <f>D42-AA42</f>
         <v>4.75</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="18" t="s">
+    <row r="43" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="1">
+      <c r="B43" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="35"/>
+      <c r="D43" s="1">
         <v>42</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="37"/>
-      <c r="AB39" s="11">
-        <f>SUM(E39:AA39)</f>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="11">
-        <f>D39-AB39</f>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="51"/>
+      <c r="AA43" s="10">
+        <f>SUM(E43:Z43)</f>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="11">
+        <f>D43-AA43</f>
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="2.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="26"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="8"/>
-    </row>
-    <row r="41" spans="1:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="10">
-        <f>SUM(D2:D39)</f>
-        <v>420</v>
-      </c>
-      <c r="E41" s="9">
-        <f t="shared" ref="E41:AA41" si="3">SUM(E2:E39)</f>
-        <v>7</v>
-      </c>
-      <c r="F41" s="9">
-        <f t="shared" si="3"/>
-        <v>3.75</v>
-      </c>
-      <c r="G41" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X41" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA41" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB41" s="11">
-        <f>SUM(E41:AA41)</f>
-        <v>10.75</v>
-      </c>
-      <c r="AC41" s="7">
-        <f>D41-AB41</f>
-        <v>409.25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="E43" s="32">
-        <v>23.02</v>
-      </c>
-      <c r="F43" s="14">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="G43" s="14">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="H43" s="14">
-        <v>16.03</v>
-      </c>
-      <c r="I43" s="14">
-        <v>23.03</v>
-      </c>
-      <c r="J43" s="14">
-        <v>30.03</v>
-      </c>
-      <c r="K43" s="14">
-        <v>6.04</v>
-      </c>
-      <c r="L43" s="14">
-        <v>13.04</v>
-      </c>
-      <c r="M43" s="14">
-        <v>20.04</v>
-      </c>
-      <c r="N43" s="14">
-        <v>27.04</v>
-      </c>
-      <c r="O43" s="14">
-        <v>4.05</v>
-      </c>
-      <c r="P43" s="14">
-        <v>11.05</v>
-      </c>
-      <c r="Q43" s="14">
-        <v>18.05</v>
-      </c>
-      <c r="R43" s="14">
-        <v>25.05</v>
-      </c>
-      <c r="S43" s="14">
-        <v>1.06</v>
-      </c>
-      <c r="T43" s="14">
-        <v>8.06</v>
-      </c>
-      <c r="U43" s="14">
-        <v>15.06</v>
-      </c>
-      <c r="V43" s="14">
-        <v>22.06</v>
-      </c>
-      <c r="W43" s="14">
-        <v>29.06</v>
-      </c>
-      <c r="X43" s="14">
-        <v>6.07</v>
-      </c>
-      <c r="Y43" s="14">
-        <v>13.07</v>
-      </c>
-      <c r="Z43" s="14">
-        <v>20.07</v>
-      </c>
-      <c r="AA43" s="14">
-        <v>27.07</v>
+    <row r="44" spans="1:28" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="24"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="51"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+    </row>
+    <row r="45" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="10">
+        <f>SUM(D2:D44)</f>
+        <v>549</v>
+      </c>
+      <c r="E45" s="9">
+        <f>SUM(E2:E43)</f>
+        <v>8</v>
+      </c>
+      <c r="F45" s="9">
+        <f>SUM(F2:F43)</f>
+        <v>6.25</v>
+      </c>
+      <c r="G45" s="9">
+        <f>SUM(G2:G43)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="32">
+        <f>SUM(H2:H43)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="9">
+        <f>SUM(I2:I43)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="9">
+        <f>SUM(J2:J43)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="9">
+        <f>SUM(K2:K43)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="9">
+        <f>SUM(L2:L43)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="9">
+        <f>SUM(M2:M43)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="9">
+        <f>SUM(N2:N43)</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="9">
+        <f>SUM(O2:O43)</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="9">
+        <f>SUM(P2:P43)</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9">
+        <f>SUM(Q2:Q43)</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="9">
+        <f>SUM(R2:R43)</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="9">
+        <f>SUM(S2:S43)</f>
+        <v>0</v>
+      </c>
+      <c r="T45" s="9">
+        <f>SUM(T2:T43)</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="27">
+        <f>SUM(U2:U43)</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="9">
+        <f>SUM(V2:V43)</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>SUM(W2:W43)</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>SUM(X2:X43)</f>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="9">
+        <f>SUM(Y2:Y43)</f>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="57">
+        <f>SUM(Z2:Z43)</f>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="7">
+        <f>SUM(E45:Z45)</f>
+        <v>14.25</v>
+      </c>
+      <c r="AB45" s="7">
+        <f>D45-AA45</f>
+        <v>534.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+    </row>
+    <row r="47" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="41">
+        <f>($D$45 -12*16-6*40)/(16+6) + 12</f>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="F47" s="41">
+        <f t="shared" ref="F47:T47" si="0">($D$45 -12*16-6*40)/(16+6) + 12</f>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="G47" s="41">
+        <f t="shared" si="0"/>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="H47" s="41">
+        <f t="shared" si="0"/>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="I47" s="41">
+        <f t="shared" si="0"/>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="J47" s="41">
+        <f t="shared" si="0"/>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="K47" s="41">
+        <f t="shared" si="0"/>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="L47" s="41">
+        <f t="shared" si="0"/>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="M47" s="41">
+        <f t="shared" si="0"/>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="N47" s="41">
+        <f t="shared" si="0"/>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="O47" s="41">
+        <f t="shared" si="0"/>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="P47" s="41">
+        <f t="shared" si="0"/>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="Q47" s="41">
+        <f t="shared" si="0"/>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="R47" s="41">
+        <f t="shared" si="0"/>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="S47" s="41">
+        <f t="shared" si="0"/>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="T47" s="41">
+        <f t="shared" si="0"/>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="U47" s="41">
+        <f>($D$45 -12*16-6*40)/(16+6) + 40</f>
+        <v>45.31818181818182</v>
+      </c>
+      <c r="V47" s="41">
+        <f t="shared" ref="V47:Z47" si="1">($D$45 -12*16-6*40)/(16+6) + 40</f>
+        <v>45.31818181818182</v>
+      </c>
+      <c r="W47" s="41">
+        <f t="shared" si="1"/>
+        <v>45.31818181818182</v>
+      </c>
+      <c r="X47" s="41">
+        <f t="shared" si="1"/>
+        <v>45.31818181818182</v>
+      </c>
+      <c r="Y47" s="41">
+        <f t="shared" si="1"/>
+        <v>45.31818181818182</v>
+      </c>
+      <c r="Z47" s="42">
+        <f t="shared" si="1"/>
+        <v>45.31818181818182</v>
+      </c>
+      <c r="AA47" s="13">
+        <f>SUM(E47:Z47)</f>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="41">
+        <f>E47-E45</f>
+        <v>9.3181818181818201</v>
+      </c>
+      <c r="F48" s="41">
+        <f>F47-F45</f>
+        <v>11.06818181818182</v>
+      </c>
+      <c r="G48" s="41">
+        <f>G47-G45</f>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="H48" s="41">
+        <f>H47-H45</f>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="I48" s="41">
+        <f>I47-I45</f>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="J48" s="41">
+        <f>J47-J45</f>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="K48" s="41">
+        <f>K47-K45</f>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="L48" s="41">
+        <f>L47-L45</f>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="M48" s="41">
+        <f>M47-M45</f>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="N48" s="41">
+        <f>N47-N45</f>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="O48" s="41">
+        <f>O47-O45</f>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="P48" s="41">
+        <f>P47-P45</f>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="Q48" s="41">
+        <f>Q47-Q45</f>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="R48" s="41">
+        <f>R47-R45</f>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="S48" s="41">
+        <f>S47-S45</f>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="T48" s="41">
+        <f>T47-T45</f>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="U48" s="41">
+        <f>U47-U45</f>
+        <v>45.31818181818182</v>
+      </c>
+      <c r="V48" s="41">
+        <f>V47-V45</f>
+        <v>45.31818181818182</v>
+      </c>
+      <c r="W48" s="41">
+        <f>W47-W45</f>
+        <v>45.31818181818182</v>
+      </c>
+      <c r="X48" s="41">
+        <f>X47-X45</f>
+        <v>45.31818181818182</v>
+      </c>
+      <c r="Y48" s="41">
+        <f>Y47-Y45</f>
+        <v>45.31818181818182</v>
+      </c>
+      <c r="Z48" s="42">
+        <f>Z47-Z45</f>
+        <v>45.31818181818182</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B29:C29"/>
+  <mergeCells count="13">
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AC2:AC41">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="AB2:AB46">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:Z48">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AB5" formulaRange="1"/>
+    <ignoredError sqref="AA5" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>